--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>param_value_init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始的参数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_passed_level</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_gold</t>
+  </si>
+  <si>
+    <t>item_diamond</t>
+  </si>
+  <si>
+    <t>金币道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通关的关卡等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -97,7 +130,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>玩具数据</t>
+      <t>玩家数据</t>
     </r>
     <r>
       <rPr>
@@ -121,36 +154,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>param_value_init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始的参数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_passed_level</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_gold</t>
-  </si>
-  <si>
-    <t>item_diamond</t>
-  </si>
-  <si>
-    <t>金币道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已通关的关卡等级</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击等级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerData_atk_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -602,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -610,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -621,43 +657,57 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -104,12 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item_gold</t>
-  </si>
-  <si>
-    <t>item_diamond</t>
-  </si>
-  <si>
     <t>金币道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,6 +181,14 @@
   </si>
   <si>
     <t>playerData_atk_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +582,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -657,10 +659,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -674,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -685,10 +687,10 @@
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -699,10 +701,10 @@
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -189,6 +189,35 @@
   </si>
   <si>
     <t>item_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipped_weapons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已穿戴的装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRING</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,6 +742,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -218,6 +218,31 @@
   </si>
   <si>
     <t>1,-1,-1,-1,-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_level_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础离子枪的默认等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -756,6 +781,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,52 @@
       </rPr>
       <t>NT</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次登录时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewardchest_last_load_time</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可领取的箱子数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardchest_receive_chests_count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,16 +679,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="27.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
     <col min="5" max="6" width="18.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
@@ -795,6 +842,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -289,6 +289,52 @@
   </si>
   <si>
     <t>rewardchest_receive_chests_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前在线宝箱的积分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rewardchest_current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_score</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个积分奖励（位次）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardchest_score_next_sort</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,6 +914,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -192,14 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>equipped_weapons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已穿戴的装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>S</t>
     </r>
@@ -335,6 +327,14 @@
   </si>
   <si>
     <t>rewardchest_score_next_sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preequipped_weapons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已穿戴的预装备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +728,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,27 +862,27 @@
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -890,25 +890,25 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -335,6 +335,43 @@
   </si>
   <si>
     <t>已穿戴的预装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_draw_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告抽卡次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_draw_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡总次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,6 +979,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -355,6 +355,31 @@
   </si>
   <si>
     <t>抽卡总次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店解锁状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -762,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1007,6 +1032,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,88 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>data_str</t>
+  </si>
+  <si>
+    <t>param_type</t>
+  </si>
+  <si>
+    <t>param_value_init</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Enums.Com.ParamType</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Com.ParamType</t>
-  </si>
-  <si>
-    <t>param_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>备注</t>
   </si>
   <si>
     <t>参数数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始的参数值</t>
   </si>
   <si>
     <t>playerData_hp_level</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_value_init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始的参数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_passed_level</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已通关的关卡等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,7 +73,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -131,7 +82,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -140,12 +91,35 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>血量等级</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+  </si>
+  <si>
+    <t>playerData_atk_level</t>
   </si>
   <si>
     <r>
@@ -153,7 +127,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -163,7 +136,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -172,27 +145,47 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>攻击等级</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerData_atk_level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_passed_level</t>
+  </si>
+  <si>
+    <t>已通关的关卡等级</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>item_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币道具</t>
   </si>
   <si>
     <t>item_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石道具</t>
+  </si>
+  <si>
+    <t>preequipped_weapons</t>
+  </si>
+  <si>
+    <t>已穿戴的预装备</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>S</t>
     </r>
     <r>
@@ -200,49 +193,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>TRING</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,-1,-1,-1,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>weapon_level_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基础离子枪的默认等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次登录时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>r</t>
     </r>
     <r>
@@ -250,62 +224,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ewardchest_last_load_time</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次登录时间</t>
+  </si>
+  <si>
+    <t>rewardchest_receive_chests_count</t>
   </si>
   <si>
     <t>可领取的箱子数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardchest_receive_chests_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前在线宝箱的积分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>rewardchest_current</t>
     </r>
     <r>
@@ -313,98 +255,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_score</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前在线宝箱的积分</t>
+  </si>
+  <si>
+    <t>rewardchest_score_next_sort</t>
   </si>
   <si>
     <t>下一个积分奖励（位次）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardchest_score_next_sort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>preequipped_weapons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已穿戴的预装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ad_draw_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>广告抽卡次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>total_draw_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>抽卡总次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unlock_shop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商店解锁状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,22 +312,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -440,17 +319,159 @@
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +484,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -487,43 +694,310 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,19 +1255,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
@@ -807,248 +1281,248 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" ht="15" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+    <row r="5" ht="15" spans="2:5">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" ht="15" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+    <row r="7" ht="15" spans="2:5">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="8" ht="15" spans="2:5">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="9" ht="15" spans="2:5">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="10" ht="15" spans="2:5">
+      <c r="B10" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="2:5">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
+    <row r="16" ht="15" spans="2:5">
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,6 +78,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -82,7 +88,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>_</t>
     </r>
@@ -91,6 +97,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>血量等级</t>
@@ -102,6 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,6 +136,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -136,7 +146,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>_</t>
     </r>
@@ -145,6 +155,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>攻击等级</t>
@@ -183,6 +194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,14 +205,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>TRING</t>
     </r>
-  </si>
-  <si>
-    <t>1,-1,-1,-1,-1</t>
   </si>
   <si>
     <t>weapon_level_1</t>
@@ -214,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,19 +301,17 @@
   </si>
   <si>
     <t>商店解锁状态</t>
+  </si>
+  <si>
+    <t>1,2,3,-1,-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +324,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -319,159 +332,32 @@
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,194 +370,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -694,240 +394,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,61 +419,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1255,19 +688,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
@@ -1281,7 +714,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="2:5">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="2:5">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1354,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:5">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="2:5">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="2:5">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:5">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1407,15 +840,15 @@
         <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="2:5">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
@@ -1424,24 +857,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -1450,12 +883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -1464,12 +897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -1478,12 +911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1492,12 +925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:5">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -1506,12 +939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
@@ -1521,8 +954,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +73,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -88,7 +82,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -97,7 +91,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>血量等级</t>
@@ -109,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +127,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>玩家数据</t>
@@ -146,7 +136,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -155,7 +145,6 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>攻击等级</t>
@@ -194,7 +183,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -205,7 +193,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,6 +200,9 @@
     </r>
   </si>
   <si>
+    <t>1,2,3,-1,-1</t>
+  </si>
+  <si>
     <t>weapon_level_1</t>
   </si>
   <si>
@@ -224,7 +214,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +255,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,16 +288,18 @@
   <si>
     <t>商店解锁状态</t>
   </si>
-  <si>
-    <t>1,2,3,-1,-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +312,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -332,32 +319,159 @@
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +484,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -394,16 +694,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,18 +943,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -688,19 +1255,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
@@ -714,7 +1281,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -759,7 +1326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" ht="15" spans="2:5">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -773,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" ht="15" spans="2:5">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -787,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" ht="15" spans="2:5">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -801,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" ht="15" spans="2:5">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -815,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" ht="15" spans="2:5">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" ht="15" spans="2:5">
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
@@ -840,15 +1407,15 @@
         <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
@@ -857,24 +1424,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -883,12 +1450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -897,12 +1464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -911,12 +1478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -925,12 +1492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" ht="15" spans="2:5">
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -939,12 +1506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
@@ -954,8 +1521,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/player_data.xlsx
+++ b/_ConfigExcels/Datas/player_data.xlsx
@@ -200,7 +200,7 @@
     </r>
   </si>
   <si>
-    <t>1,2,3,-1,-1</t>
+    <t>1,-1,-1,-1,-1</t>
   </si>
   <si>
     <t>weapon_level_1</t>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
